--- a/public/DataUpload/users-encabezados-1.xlsx
+++ b/public/DataUpload/users-encabezados-1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t xml:space="preserve">first_name</t>
   </si>
@@ -79,10 +79,16 @@
     <t xml:space="preserve">Dr. Wilford Rempel</t>
   </si>
   <si>
+    <t xml:space="preserve">Rempel</t>
+  </si>
+  <si>
     <t xml:space="preserve">amedhurst@example.net</t>
   </si>
   <si>
     <t xml:space="preserve">Ms. Damaris Luettgen MD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Damaris Luettgen MD</t>
   </si>
   <si>
     <t xml:space="preserve">randi.breitenberg@example.org</t>
@@ -191,10 +197,10 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="27.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.47"/>
@@ -318,10 +324,10 @@
         <v>18</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>3</v>
@@ -329,13 +335,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>3</v>
@@ -343,13 +349,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>3</v>

--- a/public/DataUpload/users-encabezados-1.xlsx
+++ b/public/DataUpload/users-encabezados-1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
   <si>
     <t xml:space="preserve">first_name</t>
   </si>
@@ -34,22 +34,34 @@
     <t xml:space="preserve">password</t>
   </si>
   <si>
+    <t xml:space="preserve">acronym</t>
+  </si>
+  <si>
     <t xml:space="preserve">Marielle Predovic</t>
   </si>
   <si>
     <t xml:space="preserve">roy.krajcik@example.net</t>
   </si>
   <si>
+    <t xml:space="preserve">area_a</t>
+  </si>
+  <si>
     <t xml:space="preserve">Vada Weber</t>
   </si>
   <si>
     <t xml:space="preserve">herman40@example.com</t>
   </si>
   <si>
+    <t xml:space="preserve">area_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pascale Maggio</t>
   </si>
   <si>
     <t xml:space="preserve">isabel73@example.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">area_c</t>
   </si>
   <si>
     <t xml:space="preserve">Prof. Santiago Bartoletti</t>
@@ -172,9 +184,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -194,13 +210,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="27.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.47"/>
@@ -220,145 +236,178 @@
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>3</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>3</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>3</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>3</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>3</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/public/DataUpload/users-encabezados-1.xlsx
+++ b/public/DataUpload/users-encabezados-1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
   <si>
     <t xml:space="preserve">first_name</t>
   </si>
@@ -110,6 +110,21 @@
   </si>
   <si>
     <t xml:space="preserve">yluettgen@example.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agatha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agatha.christie@tmp.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actualizado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actualizado@tmp.com</t>
   </si>
 </sst>
 </file>
@@ -119,7 +134,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -140,6 +155,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -184,13 +206,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -210,10 +236,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -410,7 +436,45 @@
         <v>7</v>
       </c>
     </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C12" r:id="rId1" display="agatha.christie@tmp.net"/>
+    <hyperlink ref="C13" r:id="rId2" display="actualizado@tmp.com"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/public/DataUpload/users-encabezados-1.xlsx
+++ b/public/DataUpload/users-encabezados-1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
   <si>
     <t xml:space="preserve">first_name</t>
   </si>
@@ -112,19 +112,7 @@
     <t xml:space="preserve">yluettgen@example.net</t>
   </si>
   <si>
-    <t xml:space="preserve">Agatha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Christie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">agatha.christie@tmp.net</t>
-  </si>
-  <si>
     <t xml:space="preserve">Actualizado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">actualizado@tmp.com</t>
   </si>
 </sst>
 </file>
@@ -157,8 +145,8 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="10"/>
-      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -206,16 +194,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -232,249 +224,245 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="27.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="27.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="30.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1" display="agatha.christie@tmp.net"/>
-    <hyperlink ref="C13" r:id="rId2" display="actualizado@tmp.com"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/public/DataUpload/users-encabezados-1.xlsx
+++ b/public/DataUpload/users-encabezados-1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
   <si>
     <t xml:space="preserve">first_name</t>
   </si>
@@ -37,7 +37,7 @@
     <t xml:space="preserve">acronym</t>
   </si>
   <si>
-    <t xml:space="preserve">Prof. Scot Labadie</t>
+    <t xml:space="preserve">Scot Labadie</t>
   </si>
   <si>
     <t xml:space="preserve">Labadie</t>
@@ -58,9 +58,6 @@
     <t xml:space="preserve">area_b</t>
   </si>
   <si>
-    <t xml:space="preserve">Dr. Marian Altenwerth I</t>
-  </si>
-  <si>
     <t xml:space="preserve">Marian Altenwerth I</t>
   </si>
   <si>
@@ -73,19 +70,25 @@
     <t xml:space="preserve">Beth Bauch</t>
   </si>
   <si>
+    <t xml:space="preserve">Beth</t>
+  </si>
+  <si>
     <t xml:space="preserve">kuvalis.catalina@example.org</t>
   </si>
   <si>
     <t xml:space="preserve">Filiberto </t>
   </si>
   <si>
-    <t xml:space="preserve">Actualizado</t>
+    <t xml:space="preserve">Bauch</t>
   </si>
   <si>
     <t xml:space="preserve">pleannon@example.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Jovany Daugherty</t>
+    <t xml:space="preserve">Jovany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daugherty</t>
   </si>
   <si>
     <t xml:space="preserve">jacobi.rodrigo@example.net</t>
@@ -101,6 +104,9 @@
   </si>
   <si>
     <t xml:space="preserve">mazie24@example.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leora Haag II</t>
   </si>
   <si>
     <t xml:space="preserve">Ms. Leora Haag II</t>
@@ -122,7 +128,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -143,6 +149,18 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -187,13 +205,25 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -209,207 +239,207 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1:E11"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="27.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="27.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="30.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="0" t="s">
+      <c r="B7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>15</v>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>15</v>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/public/DataUpload/users-encabezados-1.xlsx
+++ b/public/DataUpload/users-encabezados-1.xlsx
@@ -20,12 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
-  <si>
-    <t xml:space="preserve">first_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">last_name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+  <si>
+    <t xml:space="preserve">name</t>
   </si>
   <si>
     <t xml:space="preserve">email</t>
@@ -34,63 +31,39 @@
     <t xml:space="preserve">password</t>
   </si>
   <si>
-    <t xml:space="preserve">acronym</t>
-  </si>
-  <si>
     <t xml:space="preserve">Scot Labadie</t>
   </si>
   <si>
-    <t xml:space="preserve">Labadie</t>
-  </si>
-  <si>
     <t xml:space="preserve">nienow.jane@example.com</t>
   </si>
   <si>
-    <t xml:space="preserve">area_a</t>
-  </si>
-  <si>
     <t xml:space="preserve">Enrique Kassulke</t>
   </si>
   <si>
     <t xml:space="preserve">mandy.hodkiewicz@example.org</t>
   </si>
   <si>
-    <t xml:space="preserve">area_b</t>
-  </si>
-  <si>
     <t xml:space="preserve">Marian Altenwerth I</t>
   </si>
   <si>
     <t xml:space="preserve">naomi15@example.net</t>
   </si>
   <si>
-    <t xml:space="preserve">area_c</t>
-  </si>
-  <si>
     <t xml:space="preserve">Beth Bauch</t>
   </si>
   <si>
-    <t xml:space="preserve">Beth</t>
-  </si>
-  <si>
     <t xml:space="preserve">kuvalis.catalina@example.org</t>
   </si>
   <si>
     <t xml:space="preserve">Filiberto </t>
   </si>
   <si>
-    <t xml:space="preserve">Bauch</t>
-  </si>
-  <si>
     <t xml:space="preserve">pleannon@example.com</t>
   </si>
   <si>
     <t xml:space="preserve">Jovany</t>
   </si>
   <si>
-    <t xml:space="preserve">Daugherty</t>
-  </si>
-  <si>
     <t xml:space="preserve">jacobi.rodrigo@example.net</t>
   </si>
   <si>
@@ -107,9 +80,6 @@
   </si>
   <si>
     <t xml:space="preserve">Leora Haag II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ms. Leora Haag II</t>
   </si>
   <si>
     <t xml:space="preserve">awehner@example.org</t>
@@ -128,7 +98,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -156,11 +126,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -205,7 +170,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -214,15 +179,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -243,21 +204,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="27.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="30.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="30.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="0" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -266,181 +228,115 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/public/DataUpload/users-encabezados-1.xlsx
+++ b/public/DataUpload/users-encabezados-1.xlsx
@@ -20,9 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
-  <si>
-    <t xml:space="preserve">name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
+  <si>
+    <t xml:space="preserve">first_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last_name</t>
   </si>
   <si>
     <t xml:space="preserve">email</t>
@@ -31,22 +34,34 @@
     <t xml:space="preserve">password</t>
   </si>
   <si>
+    <t xml:space="preserve">acronym</t>
+  </si>
+  <si>
     <t xml:space="preserve">Scot Labadie</t>
   </si>
   <si>
     <t xml:space="preserve">nienow.jane@example.com</t>
   </si>
   <si>
+    <t xml:space="preserve">area_a</t>
+  </si>
+  <si>
     <t xml:space="preserve">Enrique Kassulke</t>
   </si>
   <si>
     <t xml:space="preserve">mandy.hodkiewicz@example.org</t>
   </si>
   <si>
+    <t xml:space="preserve">area_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">Marian Altenwerth I</t>
   </si>
   <si>
     <t xml:space="preserve">naomi15@example.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">area_c</t>
   </si>
   <si>
     <t xml:space="preserve">Beth Bauch</t>
@@ -179,12 +194,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -200,26 +215,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="30.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="30.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -228,115 +242,181 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>2</v>
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>2</v>
+        <v>27</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/public/DataUpload/users-encabezados-1.xlsx
+++ b/public/DataUpload/users-encabezados-1.xlsx
@@ -134,7 +134,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -155,6 +155,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -206,7 +213,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -216,6 +223,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -239,10 +250,10 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="27.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.47"/>
@@ -358,7 +369,7 @@
       <c r="B7" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="0" t="s">
@@ -443,7 +454,7 @@
       <c r="B12" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="0" t="s">
@@ -460,7 +471,7 @@
       <c r="B13" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="0" t="s">
